--- a/OnlineQuiz_CheckList.xlsx
+++ b/OnlineQuiz_CheckList.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20367"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\J3.L.P0001\QuizOnline\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NC\Desktop\QuizOnline\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD0345A-9538-4B05-9951-69CC8B4FB3ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204" tabRatio="817" firstSheet="12" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9210" tabRatio="817" firstSheet="15" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="RoleFilter.java" sheetId="1" r:id="rId1"/>
@@ -47,12 +46,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ADMINS</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -81,12 +80,12 @@
 </file>
 
 <file path=xl/comments10.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ADMINS</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{C06455F2-49A1-4A71-A3C2-A13124A72B62}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -115,12 +114,12 @@
 </file>
 
 <file path=xl/comments11.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ADMINS</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{5580AEF8-7329-4866-A5D3-F965B66FDDCA}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -149,12 +148,12 @@
 </file>
 
 <file path=xl/comments12.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ADMINS</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{75293469-D2E2-4F21-8E5E-EA97C773FA1A}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -183,12 +182,12 @@
 </file>
 
 <file path=xl/comments13.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ADMINS</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{872AAE7E-9A11-4E32-AC80-13FF9A0775FA}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -217,12 +216,12 @@
 </file>
 
 <file path=xl/comments14.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ADMINS</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{86887AFE-8B88-4651-BBA6-8FC5032A9C5C}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -251,12 +250,12 @@
 </file>
 
 <file path=xl/comments15.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ADMINS</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{08D46202-BDA5-4C2A-8864-FA6EB45E0B98}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -285,12 +284,12 @@
 </file>
 
 <file path=xl/comments16.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ADMINS</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{FC17E72B-C197-4626-9128-3FE3EFB5318A}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -319,12 +318,12 @@
 </file>
 
 <file path=xl/comments17.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ADMINS</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{B7146066-EBDD-4CEE-8532-EF7D99744A10}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -353,12 +352,12 @@
 </file>
 
 <file path=xl/comments18.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ADMINS</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{608904F1-55AC-4801-89D7-EFA77157FEDA}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -387,12 +386,12 @@
 </file>
 
 <file path=xl/comments19.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ADMINS</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{8E86C33A-F9ED-41D5-ACEC-8B5B07228EFC}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -421,12 +420,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ADMINS</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{526CD93A-1EE1-4049-AEBB-7D62D840EFDC}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -455,12 +454,12 @@
 </file>
 
 <file path=xl/comments20.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ADMINS</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{D407BAD5-62FC-404F-93CA-E1C7BD7D5B16}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -489,12 +488,12 @@
 </file>
 
 <file path=xl/comments21.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ADMINS</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{ECD3388E-F910-41C0-A153-9F231BED5CCD}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -523,12 +522,12 @@
 </file>
 
 <file path=xl/comments22.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ADMINS</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{63970903-C66D-4737-870A-AC3BFF3EE8A2}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -557,12 +556,12 @@
 </file>
 
 <file path=xl/comments23.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ADMINS</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{1EEDD609-67DD-4C8E-B939-99B37E413624}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -591,12 +590,12 @@
 </file>
 
 <file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ADMINS</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{FA038E1E-4CE3-4923-84C6-04427DA8C34D}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -625,12 +624,12 @@
 </file>
 
 <file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ADMINS</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{F890F736-1439-4DCF-955E-FA338EE752B2}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -659,12 +658,12 @@
 </file>
 
 <file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ADMINS</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{D25CF67B-4158-4585-A571-A9CF1B7C104F}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -693,12 +692,12 @@
 </file>
 
 <file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ADMINS</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{63B76C23-3308-462C-90CB-ED3CA7C4D232}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -727,12 +726,12 @@
 </file>
 
 <file path=xl/comments7.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ADMINS</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{E143CB00-D1AF-4F1C-AD47-8397EDEB41C3}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -761,12 +760,12 @@
 </file>
 
 <file path=xl/comments8.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ADMINS</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{B815C774-5948-41C8-8779-A717B3EFCD33}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -795,12 +794,12 @@
 </file>
 
 <file path=xl/comments9.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ADMINS</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{178C3EF5-2FB9-4910-868E-A27017B4208A}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -829,7 +828,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="805" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="37">
   <si>
     <t>Các biến Connection, preparedStatement, ResultSet không khai báo là attribute of class</t>
   </si>
@@ -935,11 +934,17 @@
   <si>
     <t>Passed?</t>
   </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1288,21 +1293,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="A1:XFD1048576"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="3.88671875" customWidth="1"/>
-    <col min="4" max="4" width="113.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+    <col min="4" max="4" width="113.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1313,228 +1318,309 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>16</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>19</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>22</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
       </c>
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5 E9:E18 E20:E22 E24:E47" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E22 E4:E5 E20 E24 E26:E27 E29:E47">
       <formula1>"Passed,Not passed"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E6 E7 E8 E19 E23" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3 E21 E6:E19 E23 E25 E28">
       <formula1>"Passed,Not passed,N/A"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1545,21 +1631,21 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{55DC50C6-6329-4440-AE53-D1D0B04906AB}">
-  <dimension ref="A1:E28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E2" sqref="E2:E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="3.88671875" customWidth="1"/>
-    <col min="4" max="4" width="113.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+    <col min="4" max="4" width="113.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1570,252 +1656,339 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>16</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>19</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>22</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
       </c>
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="1048576" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1048576" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E6:E8 E19 E23" xr:uid="{F0E856E6-2AAB-4A40-B5CE-9DC2BD7C7EBF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3 E1048576 E5:E19 E21:E23 E25 E27:E28">
       <formula1>"Passed,Not passed,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5 E9:E18 E20:E22 E24:E47" xr:uid="{FE70569B-B3BA-48C1-8E3A-8C587E92314A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E20 E4 E24 E26 E29:E47">
       <formula1>"Passed,Not passed"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD7FF141-F9FA-4557-A15E-87681473DA60}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E2" sqref="E2:E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="3.88671875" customWidth="1"/>
-    <col min="4" max="4" width="113.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+    <col min="4" max="4" width="113.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -1826,228 +1999,309 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>16</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>19</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>22</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
       </c>
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E6:E8 E19 E23" xr:uid="{2B38DE16-D1AF-45DC-8C14-5BC6690523D4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3 E5:E19 E21:E23 E25 E27:E28">
       <formula1>"Passed,Not passed,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5 E9:E18 E20:E22 E24:E47" xr:uid="{ACF73B5E-F6E2-48D4-A6D6-AF1E628B74FF}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E29:E47 E20 E4 E24 E26">
       <formula1>"Passed,Not passed"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2057,21 +2311,21 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E930B35B-E77D-4F0D-BBE1-45EDC99272C3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E2" sqref="E2:E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="3.88671875" customWidth="1"/>
-    <col min="4" max="4" width="113.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+    <col min="4" max="4" width="113.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -2082,228 +2336,309 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>16</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>19</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>22</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
       </c>
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E6:E8 E19 E23" xr:uid="{3ECB4D3A-D6F0-406D-89E4-CD6D90446688}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3 E5:E19 E21:E23 E25 E27:E28">
       <formula1>"Passed,Not passed,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5 E9:E18 E20:E22 E24:E47" xr:uid="{65B872A1-25C8-4C61-9E36-FE0DA3DC3B1D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E29:E47 E20 E4 E24 E26">
       <formula1>"Passed,Not passed"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2313,21 +2648,21 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D883E641-87FF-42DB-80B6-D227FDF637FB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E2" sqref="E2:E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="3.88671875" customWidth="1"/>
-    <col min="4" max="4" width="113.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+    <col min="4" max="4" width="113.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -2338,228 +2673,309 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>16</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>19</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>22</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
       </c>
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E6:E8 E19 E23" xr:uid="{C6C174E6-C81B-45F6-A3F0-F3B8C812D7A8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3 E5:E19 E21:E23 E25 E27:E28">
       <formula1>"Passed,Not passed,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5 E9:E18 E20:E22 E24:E47" xr:uid="{997F7B39-03EF-4618-8156-1F62CB093F45}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E29:E47 E20 E4 E24 E26">
       <formula1>"Passed,Not passed"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2569,21 +2985,21 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11CDFB28-CB57-4E89-A211-7ABBBB6F4F45}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="3.88671875" customWidth="1"/>
-    <col min="4" max="4" width="113.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+    <col min="4" max="4" width="113.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -2594,252 +3010,334 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>16</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>19</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>22</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
       </c>
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E6:E8 E19 E23" xr:uid="{27C178BE-F340-4A1A-AA77-74840276F893}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3 E6:E16 E18:E19 E21 E23 E25 E28">
       <formula1>"Passed,Not passed,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5 E9:E18 E20:E22 E24:E47" xr:uid="{63F9D26E-8A6F-497A-A93B-8FFB535E88A8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E22 E4:E5 E17 E20 E24 E26:E27 E29:E47">
       <formula1>"Passed,Not passed"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12BA6489-6E15-4B5F-ABA8-412E8E739CC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E2" sqref="E2:E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="3.88671875" customWidth="1"/>
-    <col min="4" max="4" width="113.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+    <col min="4" max="4" width="113.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -2850,228 +3348,309 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>16</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>19</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>22</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
       </c>
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E6:E8 E19 E23" xr:uid="{B8AE38DB-283A-4264-AC99-74AFC1CC2322}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3 E6:E16 E18:E19 E21 E23 E25 E28">
       <formula1>"Passed,Not passed,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5 E9:E18 E20:E22 E24:E47" xr:uid="{3634B204-3F51-411B-8B93-1793CEE2E5AD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E29:E47 E22 E4:E5 E17 E20 E24 E26:E27">
       <formula1>"Passed,Not passed"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3081,21 +3660,21 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43BD6E38-ED32-4390-9128-6325D1A83E44}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E2" sqref="E2:E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="3.88671875" customWidth="1"/>
-    <col min="4" max="4" width="113.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+    <col min="4" max="4" width="113.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -3106,228 +3685,309 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>16</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>19</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>22</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
       </c>
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E6:E8 E19 E23" xr:uid="{C751342F-33DA-4C4B-9667-22F765B3BD85}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3 E6:E16 E18:E19 E21 E23 E25 E28">
       <formula1>"Passed,Not passed,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5 E9:E18 E20:E22 E24:E47" xr:uid="{D4E3B0C6-84B3-4534-B287-CD547147CD09}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E29:E47 E22 E4:E5 E17 E20 E24 E26:E27">
       <formula1>"Passed,Not passed"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3337,21 +3997,21 @@
 </file>
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D163B3A9-B13F-4C63-B8AD-C8FA310432DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E2" sqref="E2:E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="3.88671875" customWidth="1"/>
-    <col min="4" max="4" width="113.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+    <col min="4" max="4" width="113.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -3362,228 +4022,309 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>16</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>19</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>22</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
       </c>
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E6:E8 E19 E23" xr:uid="{42B6E3A3-A5A8-4FFC-85E5-43E324206F10}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3 E6:E16 E18:E19 E21 E23 E25 E28">
       <formula1>"Passed,Not passed,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5 E9:E18 E20:E22 E24:E47" xr:uid="{E52CF573-502D-48EA-8B4C-C4B4AD07A93D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E29:E47 E22 E4:E5 E17 E20 E24 E26:E27">
       <formula1>"Passed,Not passed"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3593,21 +4334,21 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78FD251D-2739-401F-9695-68689ED1A8D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E2" sqref="E2:E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="3.88671875" customWidth="1"/>
-    <col min="4" max="4" width="113.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+    <col min="4" max="4" width="113.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -3618,228 +4359,309 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>16</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>19</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>22</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
       </c>
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E6:E8 E19 E23" xr:uid="{73651923-E79E-4C28-BB46-DA21FCBA3926}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3 E6:E16 E18:E19 E21 E23 E25 E28">
       <formula1>"Passed,Not passed,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5 E9:E18 E20:E22 E24:E47" xr:uid="{603BB01D-CDE3-4740-9DC0-4FA8847F975F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E29:E47 E22 E4:E5 E17 E20 E24 E26:E27">
       <formula1>"Passed,Not passed"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3849,21 +4671,21 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{345C85E5-F2FA-4BBF-B4E3-16B209E6EA69}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E2" sqref="E2:E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="3.88671875" customWidth="1"/>
-    <col min="4" max="4" width="113.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+    <col min="4" max="4" width="113.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -3874,228 +4696,309 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>16</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>19</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>22</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
       </c>
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E6:E8 E19 E23" xr:uid="{569B881C-F4F9-4500-A8A3-F3571681FC1A}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3 E6:E16 E18:E19 E21 E23 E25 E28">
       <formula1>"Passed,Not passed,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5 E9:E18 E20:E22 E24:E47" xr:uid="{8D3EFD92-7BF9-4BC8-8854-A3937594B7DB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E29:E47 E22 E4:E5 E17 E20 E24 E26:E27">
       <formula1>"Passed,Not passed"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4105,21 +5008,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D67F8F22-4349-4E99-A6F5-8D3690BFE1EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E2" sqref="E2:E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="3.88671875" customWidth="1"/>
-    <col min="4" max="4" width="113.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+    <col min="4" max="4" width="113.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -4130,252 +5033,334 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>16</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>19</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>22</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
       </c>
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E6:E8 E19 E23" xr:uid="{915699FD-4090-469C-A387-59E26CB0EE57}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3 E6:E21 E23 E25 E28">
       <formula1>"Passed,Not passed,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5 E9:E18 E20:E22 E24:E47" xr:uid="{98F15F05-58EF-4D64-9C0B-3C0614C3F447}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E22 E4:E5 E24 E26:E27 E29:E47">
       <formula1>"Passed,Not passed"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A284F205-7B62-432A-9EBF-D36549994FC2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E2" sqref="E2:E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="3.88671875" customWidth="1"/>
-    <col min="4" max="4" width="113.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+    <col min="4" max="4" width="113.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -4386,228 +5371,309 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>16</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>19</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>22</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
       </c>
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E6:E8 E19 E23" xr:uid="{A5BA0D3D-2885-4AA8-A6B3-F6D257745CF9}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3 E6:E16 E18:E19 E21 E23 E25 E28">
       <formula1>"Passed,Not passed,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5 E9:E18 E20:E22 E24:E47" xr:uid="{1CFDBF1F-F098-4DDE-8358-77A6BF70D5B1}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E29:E47 E22 E4:E5 E17 E20 E24 E26:E27">
       <formula1>"Passed,Not passed"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4617,21 +5683,21 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A127E291-838E-49CF-A1D4-C047B1E34D86}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E2" sqref="E2:E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="3.88671875" customWidth="1"/>
-    <col min="4" max="4" width="113.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+    <col min="4" max="4" width="113.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -4642,228 +5708,309 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>16</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>19</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>22</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
       </c>
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E6:E8 E19 E23" xr:uid="{DE0F8B63-5BD0-4586-B10E-01FAB93214CB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3 E6:E16 E18:E19 E21 E23 E25 E28">
       <formula1>"Passed,Not passed,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5 E9:E18 E20:E22 E24:E47" xr:uid="{0A599222-FB6C-43D2-BF55-2EFD5352315B}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E29:E47 E22 E4:E5 E17 E20 E24 E26:E27">
       <formula1>"Passed,Not passed"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4873,21 +6020,21 @@
 </file>
 
 <file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE906980-3526-448E-979B-B1FB9248E05A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="3.88671875" customWidth="1"/>
-    <col min="4" max="4" width="113.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+    <col min="4" max="4" width="113.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -4898,228 +6045,309 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>16</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>19</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>22</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
       </c>
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E6:E8 E19 E23" xr:uid="{74194DC1-554E-4494-A09A-2C46EA1F87EA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3 E6:E16 E18:E19 E21 E23 E25 E28">
       <formula1>"Passed,Not passed,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5 E9:E18 E20:E22 E24:E47" xr:uid="{038C8C5E-2332-40A7-9D4B-7BCA40AF44D4}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E29:E47 E22 E4:E5 E17 E20 E24 E26:E27">
       <formula1>"Passed,Not passed"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5130,21 +6358,21 @@
 </file>
 
 <file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5613D12-F8AD-4BD6-98B1-F3981600B701}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="3.88671875" customWidth="1"/>
-    <col min="4" max="4" width="113.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+    <col min="4" max="4" width="113.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -5155,252 +6383,334 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>16</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>19</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>22</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
       </c>
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E6:E8 E19 E23" xr:uid="{61EFC7AA-672B-4EAA-836D-F802F12A81A3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3 E23 E16:E17 E5:E14 E19 E21 E25 E28">
       <formula1>"Passed,Not passed,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5 E9:E18 E20:E22 E24:E47" xr:uid="{B133561A-2BF9-4BEE-8BE9-71EED9222659}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E22 E4 E18 E15 E20 E24 E26:E27 E29:E47">
       <formula1>"Passed,Not passed"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4140F68D-C22E-437E-9E86-B5B3A82155CA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E2" sqref="E2:E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="3.88671875" customWidth="1"/>
-    <col min="4" max="4" width="113.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+    <col min="4" max="4" width="113.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -5411,228 +6721,309 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>16</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>19</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>22</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
       </c>
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E6:E8 E19 E23" xr:uid="{688B45B6-5F12-4CD7-9F6E-AEF35871750E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3 E6:E21 E23 E25 E28">
       <formula1>"Passed,Not passed,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5 E9:E18 E20:E22 E24:E47" xr:uid="{78056BA2-4864-41A7-974E-0242B10731CE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E29:E47 E22 E4:E5 E24 E26:E27">
       <formula1>"Passed,Not passed"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5642,21 +7033,21 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4AACC51-A299-4DDA-A71C-27F2A2463B96}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E2" sqref="E2:E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="3.88671875" customWidth="1"/>
-    <col min="4" max="4" width="113.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+    <col min="4" max="4" width="113.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -5667,228 +7058,309 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>16</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>19</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>22</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
       </c>
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E6:E8 E19 E23" xr:uid="{5F8D18CB-837E-4E81-8E9E-F3D2A1DA7B94}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3 E6:E21 E23 E25 E28">
       <formula1>"Passed,Not passed,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5 E9:E18 E20:E22 E24:E47" xr:uid="{99D279F7-5D21-4F0A-BC6B-63310B9C43EB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E29:E47 E22 E4:E5 E24 E26:E27">
       <formula1>"Passed,Not passed"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5898,21 +7370,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40930B11-B6A3-4138-9C6A-58EC3C572AF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="3.88671875" customWidth="1"/>
-    <col min="4" max="4" width="113.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+    <col min="4" max="4" width="113.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -5923,252 +7395,334 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>16</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>19</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>22</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
       </c>
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E6:E8 E19 E23" xr:uid="{1543207B-18CF-4B64-843F-81D0E7DD5588}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3 E6:E21 E23 E25 E28">
       <formula1>"Passed,Not passed,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5 E9:E18 E20:E22 E24:E47" xr:uid="{67ED629C-D2CC-4D0A-B260-E2EF44F439D2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E29:E47 E22 E4:E5 E24 E26:E27">
       <formula1>"Passed,Not passed"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61836244-D8F3-4464-8379-EECFE1A00F49}">
-  <dimension ref="A1:E28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="3.88671875" customWidth="1"/>
-    <col min="4" max="4" width="113.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+    <col min="4" max="4" width="113.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -6179,252 +7733,339 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>16</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>19</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>22</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
       </c>
+      <c r="E28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="1048576" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E1048576" t="s">
+        <v>36</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E6:E8 E19 E23" xr:uid="{69F2647E-894C-4BB1-9B97-5347FDE8CDC2}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3 E17 E19 E6:E15 E1048576 E23 E28">
       <formula1>"Passed,Not passed,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5 E9:E18 E20:E22 E24:E47" xr:uid="{39FCB5C6-7CF8-444C-90C6-233099CB80D3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E18 E4:E5 E20:E22 E16 E24:E27 E29:E47">
       <formula1>"Passed,Not passed"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C3F6A40-9402-4FFD-B7F6-52E615A2753A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="3.88671875" customWidth="1"/>
-    <col min="4" max="4" width="113.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+    <col min="4" max="4" width="113.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -6435,228 +8076,309 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>16</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>19</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>22</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
       </c>
+      <c r="E28" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E6:E8 E19 E23" xr:uid="{CE5AF33D-0AB8-4F8F-8E0E-0BC207214915}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3 E17 E19 E6:E15 E23 E28">
       <formula1>"Passed,Not passed,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5 E9:E18 E20:E22 E24:E47" xr:uid="{A494EE21-F467-4DB6-82FD-DFFA0A62FB58}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E29:E47 E18 E4:E5 E20:E22 E16 E24:E27">
       <formula1>"Passed,Not passed"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6666,21 +8388,21 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3559C78B-7320-4EB0-BA23-F6AABF8AABE9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="3.88671875" customWidth="1"/>
-    <col min="4" max="4" width="113.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+    <col min="4" max="4" width="113.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -6691,228 +8413,309 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>16</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>19</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>22</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
       </c>
+      <c r="E28" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E6:E8 E19 E23" xr:uid="{CE8EF922-29F1-49F5-9D85-F8B955E84683}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3 E17 E19 E6:E15 E23 E28">
       <formula1>"Passed,Not passed,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5 E9:E18 E20:E22 E24:E47" xr:uid="{F75C93CE-7BD9-4BE4-A770-5F7868C8D3DB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E29:E47 E18 E4:E5 E20:E22 E16 E24:E27">
       <formula1>"Passed,Not passed"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6922,21 +8725,21 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{759F47E9-157E-4C40-8865-92179608C8AC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="3.88671875" customWidth="1"/>
-    <col min="4" max="4" width="113.88671875" customWidth="1"/>
-    <col min="5" max="5" width="11.109375" customWidth="1"/>
+    <col min="2" max="2" width="3.85546875" customWidth="1"/>
+    <col min="4" max="4" width="113.85546875" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>24</v>
       </c>
@@ -6947,228 +8750,309 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E8" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>16</v>
       </c>
       <c r="C10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
       <c r="C13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>10</v>
       </c>
       <c r="C14" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E14" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>9</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>10</v>
       </c>
       <c r="B16" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>11</v>
       </c>
       <c r="B17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>12</v>
       </c>
       <c r="B18" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>13</v>
       </c>
       <c r="B19" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>14</v>
       </c>
       <c r="B20" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>15</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>16</v>
       </c>
       <c r="B22" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E22" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>17</v>
       </c>
       <c r="B23" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E23" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>18</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>19</v>
       </c>
       <c r="B25" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E25" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>20</v>
       </c>
       <c r="B26" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E26" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>21</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E27" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>22</v>
       </c>
       <c r="B28" t="s">
         <v>30</v>
       </c>
+      <c r="E28" t="s">
+        <v>35</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2 E6:E8 E19 E23" xr:uid="{360A4C3F-7E41-45C6-BE6A-BF3D9583AD77}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E3 E17 E19 E6:E15 E23 E28">
       <formula1>"Passed,Not passed,N/A"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E3:E5 E9:E18 E20:E22 E24:E47" xr:uid="{0D533936-A931-4EA9-8D04-E9B73ED63309}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E29:E47 E18 E4:E5 E20:E22 E16 E24:E27">
       <formula1>"Passed,Not passed"</formula1>
     </dataValidation>
   </dataValidations>
